--- a/ProjetPidev/public/medicaments.xlsx
+++ b/ProjetPidev/public/medicaments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -29,19 +29,22 @@
     <t>Date de modification</t>
   </si>
   <si>
-    <t>Doliprane</t>
+    <t>Doliprane 2</t>
   </si>
   <si>
     <t>Le paracétamol, aussi appelé acétaminophène, est un composé chimique utilisé comme antalgique et antipyrétique</t>
   </si>
   <si>
+    <t>2021-04-07 00:00:00</t>
+  </si>
+  <si>
+    <t>Augmentin</t>
+  </si>
+  <si>
+    <t>Acide clavulanique est une spécialité pharmaceutique de type antibiotique associant acide clavulanique et amoxicilline</t>
+  </si>
+  <si>
     <t>2021-03-10 00:00:00</t>
-  </si>
-  <si>
-    <t>Augmentin</t>
-  </si>
-  <si>
-    <t>Acide clavulanique est une spécialité pharmaceutique de type antibiotique associant acide clavulanique et amoxicilline</t>
   </si>
   <si>
     <t>Maxilase</t>
@@ -448,7 +451,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -456,13 +459,13 @@
         <v>78</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -470,13 +473,13 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -484,13 +487,13 @@
         <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -498,13 +501,13 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
